--- a/数据整理/stocks/A股/创业板/300095-华伍股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300095-华伍股份.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -849,7 +850,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -860,17 +861,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -880,13 +901,179 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>011460</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5338</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005967</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011461</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>9</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>1.52</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300095-华伍股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300095-华伍股份.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1020,7 +1021,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,17 +1032,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1051,14 +1072,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.61</v>
+          <t>010894</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>70.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7960</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1067,13 +1110,233 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>020010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰金牛创新混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3937</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010895</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0821</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005967</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001922</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰多策略收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>23.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>9</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>1.52</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300095-华伍股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300095-华伍股份.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,37 +464,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -504,36 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>011460</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>鹏华创新成长混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>22.65</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.28</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.1121</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.35</v>
       </c>
     </row>
     <row r="3">
@@ -542,36 +500,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005967</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>鹏华创新驱动混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.07</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0906</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.61</v>
       </c>
     </row>
     <row r="4">
@@ -580,264 +516,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003495</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>鹏华弘尚灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>21.16</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0852</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>000969</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>前海开源大安全核心精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.57</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0681</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001370</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中银新趋势灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>22.43</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0506</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001060</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>前海开源高端装备制造灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.74</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0482</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>011461</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>鹏华创新成长混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.28</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0265</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>010538</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>国泰惠元混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>22.78</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0213</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>003496</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>鹏华弘尚灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>21.16</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0212</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
+      <c r="D4" t="n">
+        <v>1.52</v>
       </c>
     </row>
   </sheetData>
@@ -846,6 +532,252 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010894</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>70.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7960</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>020010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰金牛创新混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3937</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010895</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0821</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005967</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001922</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰多策略收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>23.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1015,13 +947,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1072,36 +1004,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010894</t>
+          <t>011460</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏华汇智优选混合A</t>
+          <t>鹏华创新成长混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>70.43</t>
+          <t>22.65</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.45</t>
+          <t>93.28</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.7960</t>
+          <t>1.1121</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1110,36 +1042,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>020010</t>
+          <t>005967</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰金牛创新混合</t>
+          <t>鹏华创新驱动混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14.06</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.11</t>
+          <t>94.07</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>4.72</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3937</t>
+          <t>0.0906</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1148,36 +1080,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010895</t>
+          <t>003495</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鹏华汇智优选混合C</t>
+          <t>鹏华弘尚灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.45</t>
+          <t>21.16</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0821</t>
+          <t>0.0852</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1186,36 +1118,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005967</t>
+          <t>000969</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鹏华创新驱动混合</t>
+          <t>前海开源大安全核心精选灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.81</t>
+          <t>94.57</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0652</t>
+          <t>0.0681</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1224,120 +1156,188 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001922</t>
+          <t>001370</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国泰多策略收益灵活配置混合</t>
+          <t>中银新趋势灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>23.59</t>
+          <t>22.43</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0164</t>
+          <t>0.0506</t>
         </is>
       </c>
       <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.35</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001060</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011461</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010538</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰惠元混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>22.78</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.52</v>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003496</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华弘尚灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>21.16</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
